--- a/data/trans_camb/P23_8_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P23_8_R-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,33</t>
+          <t>-6,97</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,47</t>
+          <t>-7,59</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,11</t>
+          <t>-2,94</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,62</t>
+          <t>5,7</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>7,26</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-3,75</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-0,77</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2,12</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,07; 1,56</t>
+          <t>-17,31; 1,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 2,83</t>
+          <t>-18,57; -0,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 6,02</t>
+          <t>-14,34; 8,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 8,85</t>
+          <t>-11,22; 12,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 1,89</t>
+          <t>-5,84; 18,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 4,26</t>
+          <t>-5,75; 22,02</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-10,96; 3,32</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-8,75; 7,26</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-6,67; 11,37</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-54,54%</t>
+          <t>-77,5%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-45,72%</t>
+          <t>-84,37%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-22,76%</t>
+          <t>-32,74%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>-5,14%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-38,16%</t>
+          <t>61,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-15,85%</t>
+          <t>78,59%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-41,16%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-8,46%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>23,2%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-87,72; 45,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-81,85; 63,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-77,1; 139,24</t>
+          <t>-91,12; 236,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-56,67; 161,53</t>
+          <t>-81,99; 491,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-73,67; 33,36</t>
+          <t>-49,66; 502,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-56,34; 64,13</t>
+          <t>-52,79; 627,18</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-84,1; 82,36</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-65,8; 138,34</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-52,91; 205,25</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,01</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,35</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,45</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,75</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 9,85</t>
+          <t>-4,67; 15,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 6,17</t>
+          <t>-2,96; 7,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 1,34</t>
+          <t>-1,83; 9,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 1,03</t>
+          <t>-6,05; 3,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 3,16</t>
+          <t>-5,84; 3,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 1,89</t>
+          <t>-4,58; 5,12</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-3,47; 7,87</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-2,89; 4,69</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-2,01; 5,47</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>30,27%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,3%</t>
+          <t>47,19%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-35,51%</t>
+          <t>67,62%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-39,43%</t>
+          <t>-16,4%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-20,24%</t>
+          <t>-20,16%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-17,91%</t>
+          <t>10,27%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3,22%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8,94%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>34,45%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-79,24; 310,06</t>
+          <t>-89,05; 1172,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-47,26; 187,12</t>
+          <t>-50,54; 406,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-68,74; 25,86</t>
+          <t>-33,69; 406,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-70,05; 24,05</t>
+          <t>-73,46; 105,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-60,2; 62,23</t>
+          <t>-72,12; 110,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-54,7; 37,45</t>
+          <t>-55,41; 155,61</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-58,27; 245,11</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-45,49; 135,96</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-31,46; 163,62</t>
         </is>
       </c>
     </row>
@@ -913,22 +1064,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>7,24</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -938,7 +1089,22 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>4,23</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,93</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,9</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5,63</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 8,42</t>
+          <t>-1,68; 16,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 2,74</t>
+          <t>-2,88; 5,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 4,25</t>
+          <t>1,97; 14,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 5,65</t>
+          <t>-2,19; 4,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 4,61</t>
+          <t>-2,6; 4,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 3,29</t>
+          <t>0,31; 8,89</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-0,92; 7,71</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-1,51; 3,44</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2,35; 9,83</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>33,45%</t>
+          <t>139,75%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-4,63%</t>
+          <t>37,54%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>41,61%</t>
+          <t>330,8%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>75,76%</t>
+          <t>41,64%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>37,96%</t>
+          <t>40,15%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>40,17%</t>
+          <t>173,13%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>82,92%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>38,74%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>241,49%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,2; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-83,76; 324,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-57,03; 307,27</t>
+          <t>16,27; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-28,02; 432,38</t>
+          <t>-75,5; 381,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-39,67; 278,22</t>
+          <t>-71,54; 484,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-34,06; 210,22</t>
+          <t>-4,01; 780,54</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-43,68; 597,0</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-50,64; 296,16</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>52,86; 750,01</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 4,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 2,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 1,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 2,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 1,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 1,65</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-8,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-3,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-21,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-9,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-16,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-7,55%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-59,85; 121,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-47,73; 87,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-51,2; 25,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-42,96; 46,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-45,65; 36,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-34,09; 34,94</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,82</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3,61</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3,29</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>3,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-3,01; 9,65</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,88; 4,03</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,03; 7,96</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-3,07; 2,87</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-2,39; 3,99</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-0,43; 6,89</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,07; 4,34</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-1,83; 3,01</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0,68; 6,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>19,53%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>7,05%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>85,79%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-2,12%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>16,28%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>68,09%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>7,31%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>11,7%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>75,54%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-70,11; 289,44</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-53,79; 156,43</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-3,06; 284,02</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-49,35; 86,59</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-37,12; 121,23</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-10,08; 192,1</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-40,6; 118,79</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-32,01; 84,44</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>11,61; 178,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
